--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll3-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll3-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H2">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I2">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J2">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>1.417772901737</v>
+        <v>0.717963515989</v>
       </c>
       <c r="R2">
-        <v>5.671091606948002</v>
+        <v>2.871854063956</v>
       </c>
       <c r="S2">
-        <v>0.002899521197226742</v>
+        <v>0.002628129199414911</v>
       </c>
       <c r="T2">
-        <v>0.001604640957041583</v>
+        <v>0.001402206003324804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H3">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I3">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J3">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
-        <v>18.58155150222167</v>
+        <v>3.281380904003333</v>
       </c>
       <c r="R3">
-        <v>111.48930901333</v>
+        <v>19.68828542402</v>
       </c>
       <c r="S3">
-        <v>0.0380015744355414</v>
+        <v>0.01201160334217565</v>
       </c>
       <c r="T3">
-        <v>0.0315460098186164</v>
+        <v>0.00961296479623487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H4">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I4">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J4">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>48.45968970382634</v>
+        <v>11.86553271793333</v>
       </c>
       <c r="R4">
-        <v>290.758138222958</v>
+        <v>71.1931963076</v>
       </c>
       <c r="S4">
-        <v>0.09910606792888176</v>
+        <v>0.04343417500770518</v>
       </c>
       <c r="T4">
-        <v>0.08227030164952759</v>
+        <v>0.03476065462772326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H5">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I5">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J5">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>33.113906607743</v>
+        <v>3.401256304424</v>
       </c>
       <c r="R5">
-        <v>132.455626430972</v>
+        <v>13.605025217696</v>
       </c>
       <c r="S5">
-        <v>0.06772204068402232</v>
+        <v>0.01245041121071077</v>
       </c>
       <c r="T5">
-        <v>0.03747844998683093</v>
+        <v>0.006642763737569554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H6">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I6">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J6">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>1.905043395744334</v>
+        <v>15.300053229766</v>
       </c>
       <c r="R6">
-        <v>11.430260374466</v>
+        <v>91.800319378596</v>
       </c>
       <c r="S6">
-        <v>0.00389604971348378</v>
+        <v>0.05600635094996458</v>
       </c>
       <c r="T6">
-        <v>0.003234203433435348</v>
+        <v>0.04482224934594511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H7">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I7">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J7">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>56.65496587727934</v>
+        <v>5.975510745567333</v>
       </c>
       <c r="R7">
-        <v>339.9297952636761</v>
+        <v>35.853064473404</v>
       </c>
       <c r="S7">
-        <v>0.1158664228157198</v>
+        <v>0.02187355474492339</v>
       </c>
       <c r="T7">
-        <v>0.09618347045048112</v>
+        <v>0.01750554907130148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.314533</v>
       </c>
       <c r="I8">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J8">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N8">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O8">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P8">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q8">
-        <v>0.5534740415636666</v>
+        <v>1.587151150715167</v>
       </c>
       <c r="R8">
-        <v>3.320844249382</v>
+        <v>9.522906904291</v>
       </c>
       <c r="S8">
-        <v>0.001131922971346438</v>
+        <v>0.005809819287730232</v>
       </c>
       <c r="T8">
-        <v>0.0009396361518804912</v>
+        <v>0.004649636413594812</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.314533</v>
       </c>
       <c r="I9">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J9">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P9">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q9">
         <v>7.253916615177221</v>
@@ -1013,10 +1013,10 @@
         <v>65.28524953659499</v>
       </c>
       <c r="S9">
-        <v>0.01483515798817493</v>
+        <v>0.02655320171834513</v>
       </c>
       <c r="T9">
-        <v>0.01847252567191002</v>
+        <v>0.03187605177356043</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>1.314533</v>
       </c>
       <c r="I10">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J10">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N10">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O10">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P10">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q10">
-        <v>18.91782547151077</v>
+        <v>26.23029372345555</v>
       </c>
       <c r="R10">
-        <v>170.260429243597</v>
+        <v>236.0726435111</v>
       </c>
       <c r="S10">
-        <v>0.03868929635548695</v>
+        <v>0.0960168578327863</v>
       </c>
       <c r="T10">
-        <v>0.04817535618592967</v>
+        <v>0.1152643799372016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>1.314533</v>
       </c>
       <c r="I11">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J11">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N11">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O11">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P11">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q11">
-        <v>12.92709692764967</v>
+        <v>7.518916682009332</v>
       </c>
       <c r="R11">
-        <v>77.562581565898</v>
+        <v>45.113500092056</v>
       </c>
       <c r="S11">
-        <v>0.02643751443859798</v>
+        <v>0.02752324322878178</v>
       </c>
       <c r="T11">
-        <v>0.02194640886457111</v>
+        <v>0.02202703175416095</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>1.314533</v>
       </c>
       <c r="I12">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J12">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N12">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O12">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P12">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q12">
-        <v>0.7436960223354444</v>
+        <v>33.82274523542566</v>
       </c>
       <c r="R12">
-        <v>6.693264201019</v>
+        <v>304.404707118831</v>
       </c>
       <c r="S12">
-        <v>0.001520950483968866</v>
+        <v>0.1238092777390594</v>
       </c>
       <c r="T12">
-        <v>0.001893865699523653</v>
+        <v>0.1486280633544383</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>1.314533</v>
       </c>
       <c r="I13">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J13">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N13">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O13">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P13">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q13">
-        <v>22.11711967433711</v>
+        <v>13.20963885312989</v>
       </c>
       <c r="R13">
-        <v>199.054077069034</v>
+        <v>118.886749678169</v>
       </c>
       <c r="S13">
-        <v>0.04523224928249979</v>
+        <v>0.04835431997657141</v>
       </c>
       <c r="T13">
-        <v>0.05632254720409641</v>
+        <v>0.05804741828868078</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H14">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I14">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J14">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N14">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O14">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P14">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q14">
-        <v>0.2417039829156667</v>
+        <v>1.005551224010667</v>
       </c>
       <c r="R14">
-        <v>1.450223897494</v>
+        <v>6.033307344064</v>
       </c>
       <c r="S14">
-        <v>0.000494314583851533</v>
+        <v>0.003680853517590616</v>
       </c>
       <c r="T14">
-        <v>0.0004103422804788215</v>
+        <v>0.002945811169142954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H15">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I15">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J15">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P15">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q15">
-        <v>3.167809880790555</v>
+        <v>4.595771945208889</v>
       </c>
       <c r="R15">
-        <v>28.510288927115</v>
+        <v>41.36194750688</v>
       </c>
       <c r="S15">
-        <v>0.006478563588627816</v>
+        <v>0.01682297522655788</v>
       </c>
       <c r="T15">
-        <v>0.008067014338736521</v>
+        <v>0.0201953058239526</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H16">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I16">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J16">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N16">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O16">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P16">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q16">
-        <v>8.261478264905442</v>
+        <v>16.61839450382222</v>
       </c>
       <c r="R16">
-        <v>74.35330438414898</v>
+        <v>149.5655505344</v>
       </c>
       <c r="S16">
-        <v>0.01689574636401459</v>
+        <v>0.06083218279236435</v>
       </c>
       <c r="T16">
-        <v>0.02103834072438727</v>
+        <v>0.07302659124712689</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H17">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I17">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J17">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N17">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O17">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P17">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q17">
-        <v>5.645306880377666</v>
+        <v>4.763664676437333</v>
       </c>
       <c r="R17">
-        <v>33.871841282266</v>
+        <v>28.581988058624</v>
       </c>
       <c r="S17">
-        <v>0.01154535182923212</v>
+        <v>0.01743755212285488</v>
       </c>
       <c r="T17">
-        <v>0.009584070859540654</v>
+        <v>0.01395538712978782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H18">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I18">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J18">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N18">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O18">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P18">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q18">
-        <v>0.3247745642581111</v>
+        <v>21.42864770980267</v>
       </c>
       <c r="R18">
-        <v>2.922971078323</v>
+        <v>192.857829388224</v>
       </c>
       <c r="S18">
-        <v>0.0006642042122774026</v>
+        <v>0.07844027376868923</v>
       </c>
       <c r="T18">
-        <v>0.0008270575461660133</v>
+        <v>0.09416439698326597</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H19">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I19">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J19">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N19">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O19">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P19">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q19">
-        <v>9.658620846619778</v>
+        <v>8.369063344419557</v>
       </c>
       <c r="R19">
-        <v>86.92758761957799</v>
+        <v>75.321570099776</v>
       </c>
       <c r="S19">
-        <v>0.01975307600140971</v>
+        <v>0.03063523320808829</v>
       </c>
       <c r="T19">
-        <v>0.02459624655336214</v>
+        <v>0.03677636656379003</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H20">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I20">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J20">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N20">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O20">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P20">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q20">
-        <v>0.331764095931</v>
+        <v>1.28179129748075</v>
       </c>
       <c r="R20">
-        <v>1.327056383724</v>
+        <v>5.127165189923001</v>
       </c>
       <c r="S20">
-        <v>0.0006784986703104204</v>
+        <v>0.004692039444127821</v>
       </c>
       <c r="T20">
-        <v>0.0003754919111195636</v>
+        <v>0.002503379924342192</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H21">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I21">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J21">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P21">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q21">
-        <v>4.348151687465</v>
+        <v>5.858299750339167</v>
       </c>
       <c r="R21">
-        <v>26.08891012479</v>
+        <v>35.149798502035</v>
       </c>
       <c r="S21">
-        <v>0.008892508786926104</v>
+        <v>0.02144450001972988</v>
       </c>
       <c r="T21">
-        <v>0.007381882821205982</v>
+        <v>0.01716217376565337</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H22">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I22">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J22">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N22">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O22">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P22">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q22">
-        <v>11.339746389559</v>
+        <v>21.18371788971667</v>
       </c>
       <c r="R22">
-        <v>68.03847833735399</v>
+        <v>127.1023073383</v>
       </c>
       <c r="S22">
-        <v>0.02319118597020626</v>
+        <v>0.07754370006035985</v>
       </c>
       <c r="T22">
-        <v>0.01925155447341829</v>
+        <v>0.06205873084675278</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H23">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I23">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J23">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N23">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O23">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P23">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q23">
-        <v>7.748776461309001</v>
+        <v>6.072315144742</v>
       </c>
       <c r="R23">
-        <v>30.995105845236</v>
+        <v>24.289260578968</v>
       </c>
       <c r="S23">
-        <v>0.01584720766958549</v>
+        <v>0.02222791045024402</v>
       </c>
       <c r="T23">
-        <v>0.008770095733627373</v>
+        <v>0.01185942817485424</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H24">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I24">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J24">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N24">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O24">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P24">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q24">
-        <v>0.445787191393</v>
+        <v>27.31542013509051</v>
       </c>
       <c r="R24">
-        <v>2.674723148358</v>
+        <v>163.892520810543</v>
       </c>
       <c r="S24">
-        <v>0.0009116900240599692</v>
+        <v>0.09998899895690133</v>
       </c>
       <c r="T24">
-        <v>0.0007568155498218548</v>
+        <v>0.08002185050587574</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H25">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I25">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J25">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N25">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O25">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P25">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q25">
-        <v>13.257471285598</v>
+        <v>10.66817115507617</v>
       </c>
       <c r="R25">
-        <v>79.54482771358802</v>
+        <v>64.00902693045701</v>
       </c>
       <c r="S25">
-        <v>0.02711317092259324</v>
+        <v>0.03905119339997373</v>
       </c>
       <c r="T25">
-        <v>0.02250728736486271</v>
+        <v>0.03125292575111887</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H26">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I26">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J26">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N26">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O26">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P26">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q26">
-        <v>1.328213829098333</v>
+        <v>0.2454341765965</v>
       </c>
       <c r="R26">
-        <v>7.96928297459</v>
+        <v>1.472605059579</v>
       </c>
       <c r="S26">
-        <v>0.002716361800399763</v>
+        <v>0.0008984199220194079</v>
       </c>
       <c r="T26">
-        <v>0.002254916468570906</v>
+        <v>0.0007190113456613966</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H27">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I27">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J27">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P27">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q27">
-        <v>17.40777640841944</v>
+        <v>1.121732514728333</v>
       </c>
       <c r="R27">
-        <v>156.669987675775</v>
+        <v>10.095592632555</v>
       </c>
       <c r="S27">
-        <v>0.03560105897845608</v>
+        <v>0.004106138975362386</v>
       </c>
       <c r="T27">
-        <v>0.04432992735573945</v>
+        <v>0.004929254858093364</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H28">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I28">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J28">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N28">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O28">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P28">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q28">
-        <v>45.39854721414054</v>
+        <v>4.056205068433333</v>
       </c>
       <c r="R28">
-        <v>408.5869249272649</v>
+        <v>36.50584561590001</v>
       </c>
       <c r="S28">
-        <v>0.09284565236747482</v>
+        <v>0.0148478728260723</v>
       </c>
       <c r="T28">
-        <v>0.1156100729261197</v>
+        <v>0.01782427475042051</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H29">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I29">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J29">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N29">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O29">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P29">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q29">
-        <v>31.02213946816833</v>
+        <v>1.162711644644</v>
       </c>
       <c r="R29">
-        <v>186.13283680901</v>
+        <v>6.976269867864</v>
       </c>
       <c r="S29">
-        <v>0.06344411778577227</v>
+        <v>0.00425614443594575</v>
       </c>
       <c r="T29">
-        <v>0.05266646954320891</v>
+        <v>0.003406220257605231</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H30">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I30">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J30">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N30">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O30">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P30">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q30">
-        <v>1.784704010183889</v>
+        <v>5.230288005871</v>
       </c>
       <c r="R30">
-        <v>16.062336091655</v>
+        <v>47.07259205283901</v>
       </c>
       <c r="S30">
-        <v>0.003649940764112368</v>
+        <v>0.01914564225543428</v>
       </c>
       <c r="T30">
-        <v>0.004544853820886827</v>
+        <v>0.02298357426896103</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H31">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I31">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J31">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N31">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O31">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P31">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q31">
-        <v>53.07613728059222</v>
+        <v>2.042714604462333</v>
       </c>
       <c r="R31">
-        <v>477.68523552533</v>
+        <v>18.384431440161</v>
       </c>
       <c r="S31">
-        <v>0.1085472750420374</v>
+        <v>0.007477424379515392</v>
       </c>
       <c r="T31">
-        <v>0.1351615079817962</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H32">
-        <v>1.083641</v>
-      </c>
-      <c r="I32">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J32">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.263127</v>
-      </c>
-      <c r="N32">
-        <v>2.526254</v>
-      </c>
-      <c r="O32">
-        <v>0.008853724851211806</v>
-      </c>
-      <c r="P32">
-        <v>0.006359620920621169</v>
-      </c>
-      <c r="Q32">
-        <v>0.4562587351356668</v>
-      </c>
-      <c r="R32">
-        <v>2.737552410814001</v>
-      </c>
-      <c r="S32">
-        <v>0.0009331056280769104</v>
-      </c>
-      <c r="T32">
-        <v>0.0007745931515298036</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H33">
-        <v>1.083641</v>
-      </c>
-      <c r="I33">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J33">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>16.55473833333333</v>
-      </c>
-      <c r="N33">
-        <v>49.664215</v>
-      </c>
-      <c r="O33">
-        <v>0.1160382908346841</v>
-      </c>
-      <c r="P33">
-        <v>0.1250252669447441</v>
-      </c>
-      <c r="Q33">
-        <v>5.979797734090556</v>
-      </c>
-      <c r="R33">
-        <v>53.818179606815</v>
-      </c>
-      <c r="S33">
-        <v>0.01222942705695777</v>
-      </c>
-      <c r="T33">
-        <v>0.01522790693853577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H34">
-        <v>1.083641</v>
-      </c>
-      <c r="I34">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J34">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>43.17386966666666</v>
-      </c>
-      <c r="N34">
-        <v>129.521609</v>
-      </c>
-      <c r="O34">
-        <v>0.3026216388302571</v>
-      </c>
-      <c r="P34">
-        <v>0.3260591905124801</v>
-      </c>
-      <c r="Q34">
-        <v>15.59499176648544</v>
-      </c>
-      <c r="R34">
-        <v>140.354925898369</v>
-      </c>
-      <c r="S34">
-        <v>0.03189368984419275</v>
-      </c>
-      <c r="T34">
-        <v>0.03971356455309757</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H35">
-        <v>1.083641</v>
-      </c>
-      <c r="I35">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J35">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>29.501953</v>
-      </c>
-      <c r="N35">
-        <v>59.003906</v>
-      </c>
-      <c r="O35">
-        <v>0.2067901125028462</v>
-      </c>
-      <c r="P35">
-        <v>0.1485371126561165</v>
-      </c>
-      <c r="Q35">
-        <v>10.65650861695767</v>
-      </c>
-      <c r="R35">
-        <v>63.939051701746</v>
-      </c>
-      <c r="S35">
-        <v>0.02179388009563606</v>
-      </c>
-      <c r="T35">
-        <v>0.0180916176683375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H36">
-        <v>1.083641</v>
-      </c>
-      <c r="I36">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J36">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.697247666666667</v>
-      </c>
-      <c r="N36">
-        <v>5.091743</v>
-      </c>
-      <c r="O36">
-        <v>0.0118966373492356</v>
-      </c>
-      <c r="P36">
-        <v>0.01281801248220741</v>
-      </c>
-      <c r="Q36">
-        <v>0.6130690529181112</v>
-      </c>
-      <c r="R36">
-        <v>5.517621476263001</v>
-      </c>
-      <c r="S36">
-        <v>0.001253802151333216</v>
-      </c>
-      <c r="T36">
-        <v>0.001561216432373711</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H37">
-        <v>1.083641</v>
-      </c>
-      <c r="I37">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J37">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>50.47523266666667</v>
-      </c>
-      <c r="N37">
-        <v>151.425698</v>
-      </c>
-      <c r="O37">
-        <v>0.3537995956317652</v>
-      </c>
-      <c r="P37">
-        <v>0.3812007964838307</v>
-      </c>
-      <c r="Q37">
-        <v>18.23234386737978</v>
-      </c>
-      <c r="R37">
-        <v>164.091094806418</v>
-      </c>
-      <c r="S37">
-        <v>0.03728740156750524</v>
-      </c>
-      <c r="T37">
-        <v>0.04642973692923209</v>
+        <v>0.008976347529859019</v>
       </c>
     </row>
   </sheetData>
